--- a/data/pca/factorExposure/factorExposure_2019-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1311116458722203</v>
+        <v>0.07871580964732054</v>
       </c>
       <c r="C2">
-        <v>-0.001065418225361317</v>
+        <v>-0.0380783633513711</v>
       </c>
       <c r="D2">
-        <v>0.04378874299548109</v>
+        <v>-0.01274783993203588</v>
       </c>
       <c r="E2">
-        <v>0.1083510299792687</v>
+        <v>-0.03871249025440081</v>
       </c>
       <c r="F2">
-        <v>0.1046005139613734</v>
+        <v>-0.1394138004887861</v>
       </c>
       <c r="G2">
-        <v>-0.01869255666529311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1106395903667459</v>
+      </c>
+      <c r="H2">
+        <v>-0.05343230860184654</v>
+      </c>
+      <c r="I2">
+        <v>0.0293002054500466</v>
+      </c>
+      <c r="J2">
+        <v>0.07190476505362769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2289611376384784</v>
+        <v>0.1708863970736662</v>
       </c>
       <c r="C3">
-        <v>0.1105617540101789</v>
+        <v>-0.09325120722754279</v>
       </c>
       <c r="D3">
-        <v>-0.04642148032503334</v>
+        <v>0.03219415517256603</v>
       </c>
       <c r="E3">
-        <v>0.3210025661542507</v>
+        <v>0.02228572379130191</v>
       </c>
       <c r="F3">
-        <v>0.01897413757754742</v>
+        <v>-0.3661955457441352</v>
       </c>
       <c r="G3">
-        <v>-0.1137735070222989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0966685316723474</v>
+      </c>
+      <c r="H3">
+        <v>-0.2803675370793686</v>
+      </c>
+      <c r="I3">
+        <v>0.2120320932750345</v>
+      </c>
+      <c r="J3">
+        <v>0.2541138564120503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09989127650505224</v>
+        <v>0.07515282494518895</v>
       </c>
       <c r="C4">
-        <v>0.03530169664102975</v>
+        <v>-0.03948904541179794</v>
       </c>
       <c r="D4">
-        <v>0.02370657137293621</v>
+        <v>0.02771259394154935</v>
       </c>
       <c r="E4">
-        <v>0.07045908897558668</v>
+        <v>-0.03384124388830277</v>
       </c>
       <c r="F4">
-        <v>0.03580087890840399</v>
+        <v>-0.08161104654499712</v>
       </c>
       <c r="G4">
-        <v>-0.03967503534739209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04763681578782726</v>
+      </c>
+      <c r="H4">
+        <v>-0.02621149561383242</v>
+      </c>
+      <c r="I4">
+        <v>0.03771127310207234</v>
+      </c>
+      <c r="J4">
+        <v>0.06027853608571439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01766801671279192</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008234970633634379</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009079272779122448</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004297768475819552</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.002081985130116917</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02144238722437293</v>
+      </c>
+      <c r="H6">
+        <v>-0.003246351439895416</v>
+      </c>
+      <c r="I6">
+        <v>-0.01108485908580552</v>
+      </c>
+      <c r="J6">
+        <v>0.001648548598772048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04336303824130584</v>
+        <v>0.03587181160296286</v>
       </c>
       <c r="C7">
-        <v>0.008026609181787787</v>
+        <v>-0.008907587039576514</v>
       </c>
       <c r="D7">
-        <v>0.03135475944731372</v>
+        <v>0.04047072859694943</v>
       </c>
       <c r="E7">
-        <v>0.07189454701441386</v>
+        <v>-0.02726513722526071</v>
       </c>
       <c r="F7">
-        <v>-0.05067674072172756</v>
+        <v>-0.0551475236678903</v>
       </c>
       <c r="G7">
-        <v>0.0005218649503648199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00379770419673103</v>
+      </c>
+      <c r="H7">
+        <v>-0.04670094703465912</v>
+      </c>
+      <c r="I7">
+        <v>-0.004444309118063015</v>
+      </c>
+      <c r="J7">
+        <v>0.05136679192179164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04375096798684448</v>
+        <v>0.03033045250964201</v>
       </c>
       <c r="C8">
-        <v>0.04476806953404129</v>
+        <v>-0.04195598647384487</v>
       </c>
       <c r="D8">
-        <v>0.001880763872855035</v>
+        <v>0.0277063433524593</v>
       </c>
       <c r="E8">
-        <v>0.06673039610688471</v>
+        <v>-0.0131179660671642</v>
       </c>
       <c r="F8">
-        <v>0.005374577761630433</v>
+        <v>-0.07162080772928051</v>
       </c>
       <c r="G8">
-        <v>-0.02101113625708328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0230561726999402</v>
+      </c>
+      <c r="H8">
+        <v>-0.05130695045975747</v>
+      </c>
+      <c r="I8">
+        <v>0.03749850314005555</v>
+      </c>
+      <c r="J8">
+        <v>0.06393513196244671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08856888907767775</v>
+        <v>0.0624623763481266</v>
       </c>
       <c r="C9">
-        <v>0.03547409531582471</v>
+        <v>-0.03493700218372697</v>
       </c>
       <c r="D9">
-        <v>0.03191764771319121</v>
+        <v>0.03101333376308141</v>
       </c>
       <c r="E9">
-        <v>0.05570915671566753</v>
+        <v>-0.03066072348505422</v>
       </c>
       <c r="F9">
-        <v>0.02421939019825142</v>
+        <v>-0.08173647171408013</v>
       </c>
       <c r="G9">
-        <v>-0.05729318393368005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04529980408288289</v>
+      </c>
+      <c r="H9">
+        <v>-0.02200152539749739</v>
+      </c>
+      <c r="I9">
+        <v>0.01725455412780879</v>
+      </c>
+      <c r="J9">
+        <v>0.03983122844045191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001324063943679777</v>
+        <v>0.02087664552023274</v>
       </c>
       <c r="C10">
-        <v>-0.1567373429309661</v>
+        <v>0.1440942347800991</v>
       </c>
       <c r="D10">
-        <v>-0.01495706859270756</v>
+        <v>-0.05837221782358669</v>
       </c>
       <c r="E10">
-        <v>0.07064675352992228</v>
+        <v>0.01736928037018676</v>
       </c>
       <c r="F10">
-        <v>0.01687041011156</v>
+        <v>-0.07239157419286238</v>
       </c>
       <c r="G10">
-        <v>0.02176510247646775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02468714327738027</v>
+      </c>
+      <c r="H10">
+        <v>-0.001333030229205968</v>
+      </c>
+      <c r="I10">
+        <v>0.1103276718333869</v>
+      </c>
+      <c r="J10">
+        <v>-0.00510957632904135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05813626957310949</v>
+        <v>0.0499633072755683</v>
       </c>
       <c r="C11">
-        <v>0.008540627977530637</v>
+        <v>-0.02748404516987209</v>
       </c>
       <c r="D11">
-        <v>-0.008431400474894348</v>
+        <v>0.001044022970535942</v>
       </c>
       <c r="E11">
-        <v>0.03897526684904482</v>
+        <v>-0.006122124324043069</v>
       </c>
       <c r="F11">
-        <v>0.007706626917046964</v>
+        <v>-0.03972235747748139</v>
       </c>
       <c r="G11">
-        <v>0.02032906618899652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01027817333991367</v>
+      </c>
+      <c r="H11">
+        <v>-0.002184321581539927</v>
+      </c>
+      <c r="I11">
+        <v>-0.01476244898316861</v>
+      </c>
+      <c r="J11">
+        <v>0.04282969471479517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04488446928206054</v>
+        <v>0.04723585368235528</v>
       </c>
       <c r="C12">
-        <v>0.01575345071941589</v>
+        <v>-0.02270959770970614</v>
       </c>
       <c r="D12">
-        <v>-0.004978276300815385</v>
+        <v>0.01098491623898863</v>
       </c>
       <c r="E12">
-        <v>0.02792793541477371</v>
+        <v>-0.008436196066298461</v>
       </c>
       <c r="F12">
-        <v>-0.000776938258722868</v>
+        <v>-0.01708471428198569</v>
       </c>
       <c r="G12">
-        <v>-0.001844301896312603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0009658556920485414</v>
+      </c>
+      <c r="H12">
+        <v>-0.003052823888254225</v>
+      </c>
+      <c r="I12">
+        <v>-0.01353765223387875</v>
+      </c>
+      <c r="J12">
+        <v>0.02708627861743774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06529917511953792</v>
+        <v>0.0433661078981098</v>
       </c>
       <c r="C13">
-        <v>0.02027078055969854</v>
+        <v>-0.02952203425023368</v>
       </c>
       <c r="D13">
-        <v>-0.01146911769428221</v>
+        <v>-0.006702609105988178</v>
       </c>
       <c r="E13">
-        <v>0.1052748670715062</v>
+        <v>-0.006790137682939098</v>
       </c>
       <c r="F13">
-        <v>0.01599070105257927</v>
+        <v>-0.1037688215956638</v>
       </c>
       <c r="G13">
-        <v>0.00220192030752374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0248799114182951</v>
+      </c>
+      <c r="H13">
+        <v>-0.04828999921333717</v>
+      </c>
+      <c r="I13">
+        <v>0.009787996643394291</v>
+      </c>
+      <c r="J13">
+        <v>0.05916592971666599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03513511207314125</v>
+        <v>0.02764492811575935</v>
       </c>
       <c r="C14">
-        <v>0.009585216791573837</v>
+        <v>-0.01487402897672744</v>
       </c>
       <c r="D14">
-        <v>0.02008000571259784</v>
+        <v>0.01064974782962973</v>
       </c>
       <c r="E14">
-        <v>0.02311328258995093</v>
+        <v>-0.02396583908817028</v>
       </c>
       <c r="F14">
-        <v>0.006921194452807615</v>
+        <v>-0.04058967332878514</v>
       </c>
       <c r="G14">
-        <v>0.02398442077928286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03303369895699286</v>
+      </c>
+      <c r="H14">
+        <v>-0.05189613598168938</v>
+      </c>
+      <c r="I14">
+        <v>0.008319483569872206</v>
+      </c>
+      <c r="J14">
+        <v>0.0166133832388034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.047908029539392</v>
+        <v>0.04506583657861202</v>
       </c>
       <c r="C16">
-        <v>0.02478063497873719</v>
+        <v>-0.03318724832158072</v>
       </c>
       <c r="D16">
-        <v>-0.01328362745748404</v>
+        <v>0.009180155687649773</v>
       </c>
       <c r="E16">
-        <v>0.03311918109733902</v>
+        <v>-0.002309197369203678</v>
       </c>
       <c r="F16">
-        <v>-0.004416241621241854</v>
+        <v>-0.03335340683731981</v>
       </c>
       <c r="G16">
-        <v>0.005477104011717996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.002298433762085895</v>
+      </c>
+      <c r="H16">
+        <v>-0.008864273040796754</v>
+      </c>
+      <c r="I16">
+        <v>-0.01250269283897905</v>
+      </c>
+      <c r="J16">
+        <v>0.03646036618774768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05346071126681615</v>
+        <v>0.04806005792120353</v>
       </c>
       <c r="C19">
-        <v>0.03237453755348287</v>
+        <v>-0.04267629740908975</v>
       </c>
       <c r="D19">
-        <v>-0.005718708594490004</v>
+        <v>0.01272908342847751</v>
       </c>
       <c r="E19">
-        <v>0.06962517795254201</v>
+        <v>-0.01424341959266196</v>
       </c>
       <c r="F19">
-        <v>-0.01806988452235194</v>
+        <v>-0.08017463392726898</v>
       </c>
       <c r="G19">
-        <v>0.0271662476227674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01403314886265048</v>
+      </c>
+      <c r="H19">
+        <v>-0.08579098309393179</v>
+      </c>
+      <c r="I19">
+        <v>0.03632335045677512</v>
+      </c>
+      <c r="J19">
+        <v>0.0469828970254319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03913031751364413</v>
+        <v>0.01930795961800036</v>
       </c>
       <c r="C20">
-        <v>0.03938961084701594</v>
+        <v>-0.02839329977023435</v>
       </c>
       <c r="D20">
-        <v>0.0135153076022811</v>
+        <v>0.01709815430613582</v>
       </c>
       <c r="E20">
-        <v>0.06388668896139707</v>
+        <v>-0.01707271768918785</v>
       </c>
       <c r="F20">
-        <v>-0.01386517645364987</v>
+        <v>-0.06582367545717306</v>
       </c>
       <c r="G20">
-        <v>0.006845492617905465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01751245962959302</v>
+      </c>
+      <c r="H20">
+        <v>-0.07312863586335795</v>
+      </c>
+      <c r="I20">
+        <v>0.02046671781160919</v>
+      </c>
+      <c r="J20">
+        <v>0.07791952196211664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04142340442358882</v>
+        <v>0.02455585271532363</v>
       </c>
       <c r="C21">
-        <v>0.02457008810559555</v>
+        <v>-0.02591560607883816</v>
       </c>
       <c r="D21">
-        <v>0.002833839656081603</v>
+        <v>0.02501269038044544</v>
       </c>
       <c r="E21">
-        <v>0.0915084776186595</v>
+        <v>-0.004577528277652705</v>
       </c>
       <c r="F21">
-        <v>0.0480574372300099</v>
+        <v>-0.07799260326487835</v>
       </c>
       <c r="G21">
-        <v>0.009622671252099001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03695132842035945</v>
+      </c>
+      <c r="H21">
+        <v>-0.02639804382494805</v>
+      </c>
+      <c r="I21">
+        <v>-0.009697295384027957</v>
+      </c>
+      <c r="J21">
+        <v>0.0313886153966541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04954622661617387</v>
+        <v>0.04397523401620825</v>
       </c>
       <c r="C24">
-        <v>0.01699195088562424</v>
+        <v>-0.02252113322893508</v>
       </c>
       <c r="D24">
-        <v>-0.002274042720197877</v>
+        <v>0.005750478484648318</v>
       </c>
       <c r="E24">
-        <v>0.04224001580921246</v>
+        <v>-0.007891778706824287</v>
       </c>
       <c r="F24">
-        <v>-0.002574472219455054</v>
+        <v>-0.04030073771994814</v>
       </c>
       <c r="G24">
-        <v>-0.001405821663431659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.001498935551369953</v>
+      </c>
+      <c r="H24">
+        <v>-0.008015820956081707</v>
+      </c>
+      <c r="I24">
+        <v>-0.01095997736040227</v>
+      </c>
+      <c r="J24">
+        <v>0.04259981557536398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05026799529076342</v>
+        <v>0.04651753016799984</v>
       </c>
       <c r="C25">
-        <v>0.007325257481771986</v>
+        <v>-0.02270845930680178</v>
       </c>
       <c r="D25">
-        <v>-0.005216315291367365</v>
+        <v>0.004638407313478346</v>
       </c>
       <c r="E25">
-        <v>0.04064484545408217</v>
+        <v>-0.00595716964245658</v>
       </c>
       <c r="F25">
-        <v>0.007549720160636547</v>
+        <v>-0.0440487888450538</v>
       </c>
       <c r="G25">
-        <v>0.008772439447137412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005227978368303065</v>
+      </c>
+      <c r="H25">
+        <v>-0.001665848536322176</v>
+      </c>
+      <c r="I25">
+        <v>-0.01263162926661017</v>
+      </c>
+      <c r="J25">
+        <v>0.03462509600980911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01367155382486213</v>
+        <v>0.01630561655341804</v>
       </c>
       <c r="C26">
-        <v>0.02589718361604751</v>
+        <v>-0.02499249920935547</v>
       </c>
       <c r="D26">
-        <v>0.0008358905441850876</v>
+        <v>0.004077563763393002</v>
       </c>
       <c r="E26">
-        <v>0.0348018151870696</v>
+        <v>0.0008561894824974197</v>
       </c>
       <c r="F26">
-        <v>0.01848972753404837</v>
+        <v>-0.04424202360054794</v>
       </c>
       <c r="G26">
-        <v>0.01829706825259793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02222788637636725</v>
+      </c>
+      <c r="H26">
+        <v>-0.0315735034933195</v>
+      </c>
+      <c r="I26">
+        <v>-0.005708085504380657</v>
+      </c>
+      <c r="J26">
+        <v>0.03775397987815454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1166353931558451</v>
+        <v>0.08096311267604314</v>
       </c>
       <c r="C27">
-        <v>0.02773761885261979</v>
+        <v>-0.03092497584322038</v>
       </c>
       <c r="D27">
-        <v>0.02119002243210526</v>
+        <v>0.01303711669089522</v>
       </c>
       <c r="E27">
-        <v>0.09522420120428685</v>
+        <v>-0.03099932676906959</v>
       </c>
       <c r="F27">
-        <v>0.009799477683034621</v>
+        <v>-0.0688849828648279</v>
       </c>
       <c r="G27">
-        <v>-0.009148367652764755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0180650396419211</v>
+      </c>
+      <c r="H27">
+        <v>-0.009895954755225051</v>
+      </c>
+      <c r="I27">
+        <v>0.01769075092238858</v>
+      </c>
+      <c r="J27">
+        <v>0.04389263688185933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.002519527800526463</v>
+        <v>0.03888364792094327</v>
       </c>
       <c r="C28">
-        <v>-0.2437941853731942</v>
+        <v>0.2228186793228964</v>
       </c>
       <c r="D28">
-        <v>-0.01812566518676046</v>
+        <v>-0.0801854319475597</v>
       </c>
       <c r="E28">
-        <v>0.04416247662081067</v>
+        <v>0.028840073205399</v>
       </c>
       <c r="F28">
-        <v>0.0200333593976139</v>
+        <v>-0.05852690652070022</v>
       </c>
       <c r="G28">
-        <v>0.003110089607327749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02703729173782905</v>
+      </c>
+      <c r="H28">
+        <v>0.007313833275890956</v>
+      </c>
+      <c r="I28">
+        <v>0.1555200356640763</v>
+      </c>
+      <c r="J28">
+        <v>0.00515463890271276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0244743392943764</v>
+        <v>0.02238622077844225</v>
       </c>
       <c r="C29">
-        <v>0.01784698651620472</v>
+        <v>-0.0169836925828192</v>
       </c>
       <c r="D29">
-        <v>0.02651339162422627</v>
+        <v>0.01611820623399931</v>
       </c>
       <c r="E29">
-        <v>0.02248315645745557</v>
+        <v>-0.0256491608764639</v>
       </c>
       <c r="F29">
-        <v>0.01397903789841999</v>
+        <v>-0.03606990177064011</v>
       </c>
       <c r="G29">
-        <v>0.01906890476881644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03529895023332549</v>
+      </c>
+      <c r="H29">
+        <v>-0.04807509566385638</v>
+      </c>
+      <c r="I29">
+        <v>-0.0002948875507563628</v>
+      </c>
+      <c r="J29">
+        <v>0.009855886951406313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1051874626193206</v>
+        <v>0.0935446479664553</v>
       </c>
       <c r="C30">
-        <v>0.01736208832194848</v>
+        <v>-0.05757199050673168</v>
       </c>
       <c r="D30">
-        <v>0.01883710885195175</v>
+        <v>-0.02225677238509944</v>
       </c>
       <c r="E30">
-        <v>0.1125809927379562</v>
+        <v>-0.02941895596443138</v>
       </c>
       <c r="F30">
-        <v>0.009736723161709747</v>
+        <v>-0.1029153001960756</v>
       </c>
       <c r="G30">
-        <v>0.03789784809814534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01188473588880344</v>
+      </c>
+      <c r="H30">
+        <v>-0.02042113411089214</v>
+      </c>
+      <c r="I30">
+        <v>-0.01416238075727795</v>
+      </c>
+      <c r="J30">
+        <v>0.03656134896268472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06006632121257045</v>
+        <v>0.06297317063309285</v>
       </c>
       <c r="C31">
-        <v>0.01478042053710033</v>
+        <v>-0.02409854449210804</v>
       </c>
       <c r="D31">
-        <v>0.01927206457890063</v>
+        <v>-0.004418958540902948</v>
       </c>
       <c r="E31">
-        <v>-0.01908211687090283</v>
+        <v>-0.02046229622544098</v>
       </c>
       <c r="F31">
-        <v>0.01099393135648126</v>
+        <v>-0.001353545176537974</v>
       </c>
       <c r="G31">
-        <v>0.05037594361091929</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04368794453439687</v>
+      </c>
+      <c r="H31">
+        <v>-0.03020008764915361</v>
+      </c>
+      <c r="I31">
+        <v>0.007865613641262129</v>
+      </c>
+      <c r="J31">
+        <v>0.0134328699172877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07074969635923793</v>
+        <v>0.0464954658549448</v>
       </c>
       <c r="C32">
-        <v>0.03198608116342144</v>
+        <v>-0.04559852516679057</v>
       </c>
       <c r="D32">
-        <v>0.008228511611099045</v>
+        <v>0.0309162560850119</v>
       </c>
       <c r="E32">
-        <v>0.1062544025054569</v>
+        <v>-0.02541615861670742</v>
       </c>
       <c r="F32">
-        <v>-0.007435128121309542</v>
+        <v>-0.08734807781226707</v>
       </c>
       <c r="G32">
-        <v>0.02219675484522716</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01561724681207022</v>
+      </c>
+      <c r="H32">
+        <v>-0.03955299724800405</v>
+      </c>
+      <c r="I32">
+        <v>0.02030206234692369</v>
+      </c>
+      <c r="J32">
+        <v>0.04732194776917596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07115996305247242</v>
+        <v>0.05918756343639322</v>
       </c>
       <c r="C33">
-        <v>0.03813627245375883</v>
+        <v>-0.05505228602046088</v>
       </c>
       <c r="D33">
-        <v>0.006528672210354793</v>
+        <v>-0.001988275576013356</v>
       </c>
       <c r="E33">
-        <v>0.06767552079729111</v>
+        <v>-0.006524155272100688</v>
       </c>
       <c r="F33">
-        <v>0.04594569105802359</v>
+        <v>-0.07715343613371249</v>
       </c>
       <c r="G33">
-        <v>0.01346922038627296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03939148057709579</v>
+      </c>
+      <c r="H33">
+        <v>-0.03719205515030911</v>
+      </c>
+      <c r="I33">
+        <v>-0.014691570276746</v>
+      </c>
+      <c r="J33">
+        <v>0.04948609432306874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04894279846542827</v>
+        <v>0.0467622329896416</v>
       </c>
       <c r="C34">
-        <v>0.0161853831616629</v>
+        <v>-0.02853596230203519</v>
       </c>
       <c r="D34">
-        <v>-0.002810545125956389</v>
+        <v>0.01245467491255144</v>
       </c>
       <c r="E34">
-        <v>0.02334598954338249</v>
+        <v>-0.01332948316552432</v>
       </c>
       <c r="F34">
-        <v>-0.00397472515775582</v>
+        <v>-0.03054714198006795</v>
       </c>
       <c r="G34">
-        <v>0.008657381118064245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004049701727506891</v>
+      </c>
+      <c r="H34">
+        <v>-0.01112335284259951</v>
+      </c>
+      <c r="I34">
+        <v>-0.01270706479077313</v>
+      </c>
+      <c r="J34">
+        <v>0.03137856754958727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01303252087215466</v>
+        <v>0.0162038022843976</v>
       </c>
       <c r="C36">
-        <v>-0.007689466434442669</v>
+        <v>-0.001026295314319195</v>
       </c>
       <c r="D36">
-        <v>0.006747502676644765</v>
+        <v>0.004924722723552956</v>
       </c>
       <c r="E36">
-        <v>0.02135915466826587</v>
+        <v>-0.008952885594783537</v>
       </c>
       <c r="F36">
-        <v>0.006970862520231116</v>
+        <v>-0.02807710930579501</v>
       </c>
       <c r="G36">
-        <v>0.01524009360789372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02483969594757604</v>
+      </c>
+      <c r="H36">
+        <v>-0.02790358926673122</v>
+      </c>
+      <c r="I36">
+        <v>-0.005472443815349248</v>
+      </c>
+      <c r="J36">
+        <v>0.002220610394844129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05642008789471664</v>
+        <v>0.03534973039311976</v>
       </c>
       <c r="C38">
-        <v>0.01122979148948085</v>
+        <v>-0.01391250704435506</v>
       </c>
       <c r="D38">
-        <v>0.02332477705750934</v>
+        <v>0.007483248395409252</v>
       </c>
       <c r="E38">
-        <v>0.03339858572363567</v>
+        <v>-0.01096804679204821</v>
       </c>
       <c r="F38">
-        <v>0.0003817246408962078</v>
+        <v>-0.05049541724350295</v>
       </c>
       <c r="G38">
-        <v>-0.02815946125304716</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02750169148957632</v>
+      </c>
+      <c r="H38">
+        <v>-0.01449460932986851</v>
+      </c>
+      <c r="I38">
+        <v>-0.01189312796028362</v>
+      </c>
+      <c r="J38">
+        <v>0.001778804703382567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07561580131985897</v>
+        <v>0.05872263771274931</v>
       </c>
       <c r="C39">
-        <v>0.01420240516083468</v>
+        <v>-0.04094521742314904</v>
       </c>
       <c r="D39">
-        <v>0.001352220791437875</v>
+        <v>0.007168854180324903</v>
       </c>
       <c r="E39">
-        <v>0.04044391886155681</v>
+        <v>-0.01433373934511207</v>
       </c>
       <c r="F39">
-        <v>0.02010500760277452</v>
+        <v>-0.05594924211522968</v>
       </c>
       <c r="G39">
-        <v>0.008637486572266085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01851666330024993</v>
+      </c>
+      <c r="H39">
+        <v>-0.001196731349133568</v>
+      </c>
+      <c r="I39">
+        <v>-0.03464428800063712</v>
+      </c>
+      <c r="J39">
+        <v>0.04558536996772179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07753170212089947</v>
+        <v>0.05799928192189565</v>
       </c>
       <c r="C40">
-        <v>0.03511784678607403</v>
+        <v>-0.04717547908196683</v>
       </c>
       <c r="D40">
-        <v>0.003943130016170489</v>
+        <v>-0.006688970511489078</v>
       </c>
       <c r="E40">
-        <v>0.1012959074388835</v>
+        <v>-0.02033901874529148</v>
       </c>
       <c r="F40">
-        <v>0.02996702865427861</v>
+        <v>-0.09481965377696232</v>
       </c>
       <c r="G40">
-        <v>-0.0373893941634827</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02688281736176109</v>
+      </c>
+      <c r="H40">
+        <v>-0.05339860295787439</v>
+      </c>
+      <c r="I40">
+        <v>0.009367724320899273</v>
+      </c>
+      <c r="J40">
+        <v>0.1166839437448536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004382969500283276</v>
+        <v>0.002973739557978298</v>
       </c>
       <c r="C41">
-        <v>0.01279848246146251</v>
+        <v>-0.0104604118053386</v>
       </c>
       <c r="D41">
-        <v>0.02135704692834816</v>
+        <v>0.004398536185223838</v>
       </c>
       <c r="E41">
-        <v>0.0113873729514361</v>
+        <v>-0.007001048059303366</v>
       </c>
       <c r="F41">
-        <v>0.02991807258430435</v>
+        <v>-0.01442840520161722</v>
       </c>
       <c r="G41">
-        <v>0.0225706986053483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.04005500718360629</v>
+      </c>
+      <c r="H41">
+        <v>-0.03131806092699307</v>
+      </c>
+      <c r="I41">
+        <v>0.01838045448618627</v>
+      </c>
+      <c r="J41">
+        <v>0.011339809937618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1236563309792871</v>
+        <v>0.2141736800814607</v>
       </c>
       <c r="C42">
-        <v>0.1814289755814096</v>
+        <v>-0.1625427493618755</v>
       </c>
       <c r="D42">
-        <v>-0.9334343323111721</v>
+        <v>-0.01599646010734069</v>
       </c>
       <c r="E42">
-        <v>-0.08686790488198043</v>
+        <v>0.9346672173665315</v>
       </c>
       <c r="F42">
-        <v>-0.03299786688891508</v>
+        <v>0.1517290220828403</v>
       </c>
       <c r="G42">
-        <v>0.07063218399781156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.001459275656200713</v>
+      </c>
+      <c r="H42">
+        <v>-0.0008860625276491193</v>
+      </c>
+      <c r="I42">
+        <v>0.04926506016838699</v>
+      </c>
+      <c r="J42">
+        <v>0.02454511754565404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008247932784813996</v>
+        <v>0.005587324763565096</v>
       </c>
       <c r="C43">
-        <v>0.01658796731996104</v>
+        <v>-0.0147974092566864</v>
       </c>
       <c r="D43">
-        <v>0.01457505445163149</v>
+        <v>0.003111451719695681</v>
       </c>
       <c r="E43">
-        <v>0.03326167122868482</v>
+        <v>-0.007575712212262297</v>
       </c>
       <c r="F43">
-        <v>0.005773618800706156</v>
+        <v>-0.02867497370437287</v>
       </c>
       <c r="G43">
-        <v>0.0184595327479137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02316145244811815</v>
+      </c>
+      <c r="H43">
+        <v>-0.03118270106613771</v>
+      </c>
+      <c r="I43">
+        <v>0.01137501576961936</v>
+      </c>
+      <c r="J43">
+        <v>0.02056878613737586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04049414860326679</v>
+        <v>0.02894932524722361</v>
       </c>
       <c r="C44">
-        <v>0.04415108048233856</v>
+        <v>-0.04121902243936234</v>
       </c>
       <c r="D44">
-        <v>0.01027090298101117</v>
+        <v>0.01605948296686037</v>
       </c>
       <c r="E44">
-        <v>0.1178761734421939</v>
+        <v>-0.006859133494905458</v>
       </c>
       <c r="F44">
-        <v>0.091339864982954</v>
+        <v>-0.1215409705500871</v>
       </c>
       <c r="G44">
-        <v>0.02912140726586145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06599274287304303</v>
+      </c>
+      <c r="H44">
+        <v>-0.1020068469718647</v>
+      </c>
+      <c r="I44">
+        <v>0.02806284270826312</v>
+      </c>
+      <c r="J44">
+        <v>0.03007811688349472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02767883431352787</v>
+        <v>0.0252963969587573</v>
       </c>
       <c r="C46">
-        <v>0.01574836130034328</v>
+        <v>-0.03439711561901183</v>
       </c>
       <c r="D46">
-        <v>0.0250810828704116</v>
+        <v>0.009584168252025993</v>
       </c>
       <c r="E46">
-        <v>0.02038168536423397</v>
+        <v>-0.02554823409825238</v>
       </c>
       <c r="F46">
-        <v>0.02340419319955261</v>
+        <v>-0.04557235820742823</v>
       </c>
       <c r="G46">
-        <v>0.02909837316310913</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03012635686740258</v>
+      </c>
+      <c r="H46">
+        <v>-0.05264262931059918</v>
+      </c>
+      <c r="I46">
+        <v>-0.0008439061209047027</v>
+      </c>
+      <c r="J46">
+        <v>0.02074761106274145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08714230137236847</v>
+        <v>0.09217033185626876</v>
       </c>
       <c r="C47">
-        <v>0.009300325859291331</v>
+        <v>-0.01899892585108889</v>
       </c>
       <c r="D47">
-        <v>0.01869181561945284</v>
+        <v>-0.001509685694496016</v>
       </c>
       <c r="E47">
-        <v>-0.02445708669809456</v>
+        <v>-0.02423293998565672</v>
       </c>
       <c r="F47">
-        <v>0.0080551443076622</v>
+        <v>0.01250872266501241</v>
       </c>
       <c r="G47">
-        <v>0.02969135663251187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.046650511344571</v>
+      </c>
+      <c r="H47">
+        <v>-0.05328831049845387</v>
+      </c>
+      <c r="I47">
+        <v>0.01383462083189664</v>
+      </c>
+      <c r="J47">
+        <v>0.02238499193266371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01772325033695638</v>
+        <v>0.01909715134025939</v>
       </c>
       <c r="C48">
-        <v>0.02008629710728238</v>
+        <v>-0.01981745522038111</v>
       </c>
       <c r="D48">
-        <v>0.01543405768999533</v>
+        <v>0.008403399923810463</v>
       </c>
       <c r="E48">
-        <v>0.02753674633448345</v>
+        <v>-0.01202938681156555</v>
       </c>
       <c r="F48">
-        <v>0.009726069907132824</v>
+        <v>-0.03026793563857485</v>
       </c>
       <c r="G48">
-        <v>0.004047122814705173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01695971289499383</v>
+      </c>
+      <c r="H48">
+        <v>-0.02280922293829712</v>
+      </c>
+      <c r="I48">
+        <v>0.009590178258901981</v>
+      </c>
+      <c r="J48">
+        <v>0.01236206301565813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08733955346997811</v>
+        <v>0.08869112866427011</v>
       </c>
       <c r="C50">
-        <v>0.03471794951924644</v>
+        <v>-0.03215477792918212</v>
       </c>
       <c r="D50">
-        <v>0.02394206599044743</v>
+        <v>0.0200683075035911</v>
       </c>
       <c r="E50">
-        <v>-0.0176897210484096</v>
+        <v>-0.02147092177341912</v>
       </c>
       <c r="F50">
-        <v>-0.001943384802787172</v>
+        <v>0.005652217937202126</v>
       </c>
       <c r="G50">
-        <v>0.03748490997723184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006666996764959967</v>
+      </c>
+      <c r="H50">
+        <v>-0.04076603005090071</v>
+      </c>
+      <c r="I50">
+        <v>-0.01284737177218661</v>
+      </c>
+      <c r="J50">
+        <v>0.004104048558033356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06821305847972248</v>
+        <v>0.04706956010804616</v>
       </c>
       <c r="C51">
-        <v>-0.02021559813718056</v>
+        <v>-0.004083475675968537</v>
       </c>
       <c r="D51">
-        <v>-0.004329953292474811</v>
+        <v>-0.01346598085180821</v>
       </c>
       <c r="E51">
-        <v>0.08197979839422342</v>
+        <v>-0.01114008216687255</v>
       </c>
       <c r="F51">
-        <v>0.05335341646150928</v>
+        <v>-0.09491725673283936</v>
       </c>
       <c r="G51">
-        <v>0.06038797432570727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05808213806952329</v>
+      </c>
+      <c r="H51">
+        <v>-0.04570917089696962</v>
+      </c>
+      <c r="I51">
+        <v>0.02205303979523247</v>
+      </c>
+      <c r="J51">
+        <v>0.042315271964253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1457203157821308</v>
+        <v>0.1276686055086589</v>
       </c>
       <c r="C53">
-        <v>0.009410851363287558</v>
+        <v>-0.03624388932153198</v>
       </c>
       <c r="D53">
-        <v>0.04210903086224959</v>
+        <v>0.002583224370993852</v>
       </c>
       <c r="E53">
-        <v>-0.04965966706117444</v>
+        <v>-0.04663428169194303</v>
       </c>
       <c r="F53">
-        <v>-0.01100549856358393</v>
+        <v>0.04201303147040432</v>
       </c>
       <c r="G53">
-        <v>0.03438774310846442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02620233147316877</v>
+      </c>
+      <c r="H53">
+        <v>0.002051296711091245</v>
+      </c>
+      <c r="I53">
+        <v>0.03387373739809584</v>
+      </c>
+      <c r="J53">
+        <v>0.03250869058099739</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02966727896404288</v>
+        <v>0.02637011570751703</v>
       </c>
       <c r="C54">
-        <v>-0.001241627384834805</v>
+        <v>-0.002543768295190392</v>
       </c>
       <c r="D54">
-        <v>0.02966848128856424</v>
+        <v>0.005780069407527366</v>
       </c>
       <c r="E54">
-        <v>0.02846945559562541</v>
+        <v>-0.02674705495035997</v>
       </c>
       <c r="F54">
-        <v>0.04665681937812823</v>
+        <v>-0.03761590288093479</v>
       </c>
       <c r="G54">
-        <v>0.006156592825094852</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05465949353149518</v>
+      </c>
+      <c r="H54">
+        <v>-0.03934571626063367</v>
+      </c>
+      <c r="I54">
+        <v>0.02806035205592243</v>
+      </c>
+      <c r="J54">
+        <v>-0.00321037430477182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09814503083115425</v>
+        <v>0.1011079093348044</v>
       </c>
       <c r="C55">
-        <v>-0.00256675844370552</v>
+        <v>-0.0174902412666498</v>
       </c>
       <c r="D55">
-        <v>0.03474354575998583</v>
+        <v>0.01612318740319895</v>
       </c>
       <c r="E55">
-        <v>-0.008191528582072387</v>
+        <v>-0.03081573489758668</v>
       </c>
       <c r="F55">
-        <v>-0.03719101478470312</v>
+        <v>0.02923622721464829</v>
       </c>
       <c r="G55">
-        <v>-0.01824455481291523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.003969195675733406</v>
+      </c>
+      <c r="H55">
+        <v>-0.01444545703119298</v>
+      </c>
+      <c r="I55">
+        <v>0.01493128534695734</v>
+      </c>
+      <c r="J55">
+        <v>0.03270671525428003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1782747808182154</v>
+        <v>0.1693573976649538</v>
       </c>
       <c r="C56">
-        <v>-0.01343697462402171</v>
+        <v>-0.01709650628525652</v>
       </c>
       <c r="D56">
-        <v>0.07772390084540265</v>
+        <v>0.004372638484396481</v>
       </c>
       <c r="E56">
-        <v>-0.09262254884623423</v>
+        <v>-0.0830811326523174</v>
       </c>
       <c r="F56">
-        <v>-0.08458580450362142</v>
+        <v>0.08737609325803185</v>
       </c>
       <c r="G56">
-        <v>-0.0007403682931508674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02880141742650056</v>
+      </c>
+      <c r="H56">
+        <v>0.0410547463990973</v>
+      </c>
+      <c r="I56">
+        <v>0.02702591214833177</v>
+      </c>
+      <c r="J56">
+        <v>0.04333213397008753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09403933092315359</v>
+        <v>0.07200789367977446</v>
       </c>
       <c r="C57">
-        <v>0.02918876301570239</v>
+        <v>-0.04004872137251559</v>
       </c>
       <c r="D57">
-        <v>0.02063625837188441</v>
+        <v>-0.005073150571984886</v>
       </c>
       <c r="E57">
-        <v>0.04565431362424126</v>
+        <v>-0.010258030938439</v>
       </c>
       <c r="F57">
-        <v>0.02418136336282158</v>
+        <v>-0.06102436165336583</v>
       </c>
       <c r="G57">
-        <v>0.02092653887668061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02285105482573808</v>
+      </c>
+      <c r="H57">
+        <v>-0.02865558304217107</v>
+      </c>
+      <c r="I57">
+        <v>-0.003793307089506075</v>
+      </c>
+      <c r="J57">
+        <v>0.04321502047688713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1808854354486538</v>
+        <v>0.2043724703086</v>
       </c>
       <c r="C58">
-        <v>0.01646858151248772</v>
+        <v>-0.1128670242068995</v>
       </c>
       <c r="D58">
-        <v>-0.04631612345094926</v>
+        <v>-0.05897938179912835</v>
       </c>
       <c r="E58">
-        <v>0.1160171704625314</v>
+        <v>0.01141166182558298</v>
       </c>
       <c r="F58">
-        <v>-0.0681173694173179</v>
+        <v>-0.2360531795544169</v>
       </c>
       <c r="G58">
-        <v>0.02914387775685152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1509889568529889</v>
+      </c>
+      <c r="H58">
+        <v>-0.3713296409003931</v>
+      </c>
+      <c r="I58">
+        <v>-0.1130578052174854</v>
+      </c>
+      <c r="J58">
+        <v>-0.7640097125945855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01283200592654871</v>
+        <v>0.03991299538296403</v>
       </c>
       <c r="C59">
-        <v>-0.2016058525915848</v>
+        <v>0.1789862111391078</v>
       </c>
       <c r="D59">
-        <v>0.0123057080459151</v>
+        <v>-0.08414595020542981</v>
       </c>
       <c r="E59">
-        <v>0.05909794047287422</v>
+        <v>-0.007349768199125199</v>
       </c>
       <c r="F59">
-        <v>0.01225853309131495</v>
+        <v>-0.07343177929907338</v>
       </c>
       <c r="G59">
-        <v>0.01012795733758218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.005197097035834959</v>
+      </c>
+      <c r="H59">
+        <v>0.0206973124350632</v>
+      </c>
+      <c r="I59">
+        <v>0.05880992432705163</v>
+      </c>
+      <c r="J59">
+        <v>-0.01445303187194199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1866843651277323</v>
+        <v>0.1843966490419113</v>
       </c>
       <c r="C60">
-        <v>-0.09622836540635676</v>
+        <v>0.02761272978434558</v>
       </c>
       <c r="D60">
-        <v>0.008160198001972064</v>
+        <v>-0.06406535492967357</v>
       </c>
       <c r="E60">
-        <v>0.1914510473472613</v>
+        <v>-0.01387373363948994</v>
       </c>
       <c r="F60">
-        <v>0.06062487125035022</v>
+        <v>-0.2067573125964296</v>
       </c>
       <c r="G60">
-        <v>0.01838283662544028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09052237951885114</v>
+      </c>
+      <c r="H60">
+        <v>0.2597794632564324</v>
+      </c>
+      <c r="I60">
+        <v>-0.08969447270791867</v>
+      </c>
+      <c r="J60">
+        <v>0.01834524465448102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05127660547584585</v>
+        <v>0.03992617815063701</v>
       </c>
       <c r="C61">
-        <v>0.00309345270534796</v>
+        <v>-0.02397753386596581</v>
       </c>
       <c r="D61">
-        <v>-0.005492715031313889</v>
+        <v>0.00812818168017314</v>
       </c>
       <c r="E61">
-        <v>0.03811993235457321</v>
+        <v>-0.004584187415464369</v>
       </c>
       <c r="F61">
-        <v>0.0077202477831705</v>
+        <v>-0.03924181907666464</v>
       </c>
       <c r="G61">
-        <v>0.003955286025830894</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009426215387978507</v>
+      </c>
+      <c r="H61">
+        <v>0.0006755533125004238</v>
+      </c>
+      <c r="I61">
+        <v>-0.03645119155987636</v>
+      </c>
+      <c r="J61">
+        <v>0.0239422235977777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04940760039878393</v>
+        <v>0.03238493549057449</v>
       </c>
       <c r="C63">
-        <v>0.003223448238879999</v>
+        <v>-0.01850417665464206</v>
       </c>
       <c r="D63">
-        <v>0.01800536366360498</v>
+        <v>0.004463743776656577</v>
       </c>
       <c r="E63">
-        <v>0.03204417203668602</v>
+        <v>-0.01424355063905858</v>
       </c>
       <c r="F63">
-        <v>0.00107337859914612</v>
+        <v>-0.02723207763232631</v>
       </c>
       <c r="G63">
-        <v>0.01966407761938129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01879595954715572</v>
+      </c>
+      <c r="H63">
+        <v>-0.04206673741283273</v>
+      </c>
+      <c r="I63">
+        <v>0.0246750314738985</v>
+      </c>
+      <c r="J63">
+        <v>0.03299958330448261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08569300592092495</v>
+        <v>0.05776444226337507</v>
       </c>
       <c r="C64">
-        <v>0.04732328381847643</v>
+        <v>-0.04384828070093671</v>
       </c>
       <c r="D64">
-        <v>0.06031354838462489</v>
+        <v>0.02960134449943913</v>
       </c>
       <c r="E64">
-        <v>0.05524506317699136</v>
+        <v>-0.04013091322299733</v>
       </c>
       <c r="F64">
-        <v>0.05962691351148853</v>
+        <v>-0.05008103293303166</v>
       </c>
       <c r="G64">
-        <v>-0.01860053817680501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05716223076036204</v>
+      </c>
+      <c r="H64">
+        <v>0.006303668928637035</v>
+      </c>
+      <c r="I64">
+        <v>0.0243368466785719</v>
+      </c>
+      <c r="J64">
+        <v>0.09771434996660122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01947081808530175</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.0077241982973389</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009582413438237871</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004518470567427754</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001312042561513332</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02237941847926094</v>
+      </c>
+      <c r="H65">
+        <v>-0.0004966868917204337</v>
+      </c>
+      <c r="I65">
+        <v>-0.01253738600091343</v>
+      </c>
+      <c r="J65">
+        <v>0.00290359617814417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09486494571106217</v>
+        <v>0.07015581408851194</v>
       </c>
       <c r="C66">
-        <v>0.02871102007627679</v>
+        <v>-0.05782408379795727</v>
       </c>
       <c r="D66">
-        <v>0.03573176914937777</v>
+        <v>0.004721655962495136</v>
       </c>
       <c r="E66">
-        <v>0.07599614296193306</v>
+        <v>-0.04253312936008027</v>
       </c>
       <c r="F66">
-        <v>0.04408903471863876</v>
+        <v>-0.06983133890746876</v>
       </c>
       <c r="G66">
-        <v>0.01875996389894546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01731388391406958</v>
+      </c>
+      <c r="H66">
+        <v>0.001336386464709022</v>
+      </c>
+      <c r="I66">
+        <v>-0.04529704952216053</v>
+      </c>
+      <c r="J66">
+        <v>0.07121656684359295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06297497912912946</v>
+        <v>0.04710265187330665</v>
       </c>
       <c r="C67">
-        <v>-0.01322433012295852</v>
+        <v>0.001619206600771809</v>
       </c>
       <c r="D67">
-        <v>0.009644222806454893</v>
+        <v>-0.002529706241547544</v>
       </c>
       <c r="E67">
-        <v>0.02965515922803714</v>
+        <v>-0.009631386004971165</v>
       </c>
       <c r="F67">
-        <v>0.005612794372373887</v>
+        <v>-0.04024179265208359</v>
       </c>
       <c r="G67">
-        <v>-0.03845999747386524</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03288748598825373</v>
+      </c>
+      <c r="H67">
+        <v>0.009009091598347603</v>
+      </c>
+      <c r="I67">
+        <v>-0.04054260800322693</v>
+      </c>
+      <c r="J67">
+        <v>0.01129450168500709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.013246907618686</v>
+        <v>0.04537540136268162</v>
       </c>
       <c r="C68">
-        <v>-0.250208890039012</v>
+        <v>0.2204316200129082</v>
       </c>
       <c r="D68">
-        <v>-0.00554558468691922</v>
+        <v>-0.09551236724979996</v>
       </c>
       <c r="E68">
-        <v>0.04061462288448592</v>
+        <v>0.006593444061707534</v>
       </c>
       <c r="F68">
-        <v>0.002024266247617795</v>
+        <v>-0.05724185024516103</v>
       </c>
       <c r="G68">
-        <v>0.02204539308890417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.001315155863743053</v>
+      </c>
+      <c r="H68">
+        <v>0.0143800185918845</v>
+      </c>
+      <c r="I68">
+        <v>0.1707556630837702</v>
+      </c>
+      <c r="J68">
+        <v>-0.05692316919793812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07365731713208731</v>
+        <v>0.07335849626046133</v>
       </c>
       <c r="C69">
-        <v>0.01307996902417543</v>
+        <v>-0.02284111014204263</v>
       </c>
       <c r="D69">
-        <v>0.02127772356746102</v>
+        <v>0.0004019590507581945</v>
       </c>
       <c r="E69">
-        <v>-0.0175854630068157</v>
+        <v>-0.02957985302221894</v>
       </c>
       <c r="F69">
-        <v>-0.002055410871708585</v>
+        <v>0.002402634683581993</v>
       </c>
       <c r="G69">
-        <v>0.02716263920880312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02870447319058309</v>
+      </c>
+      <c r="H69">
+        <v>-0.02554117008056938</v>
+      </c>
+      <c r="I69">
+        <v>-0.008044831933781086</v>
+      </c>
+      <c r="J69">
+        <v>0.02910115467442068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01283518166960631</v>
+        <v>0.05199237351322544</v>
       </c>
       <c r="C71">
-        <v>-0.2727831835612619</v>
+        <v>0.2293404613071331</v>
       </c>
       <c r="D71">
-        <v>-0.00626552080857749</v>
+        <v>-0.1063191228594819</v>
       </c>
       <c r="E71">
-        <v>0.08398614229436829</v>
+        <v>0.02471997515765011</v>
       </c>
       <c r="F71">
-        <v>0.01722365132679152</v>
+        <v>-0.0835419975440633</v>
       </c>
       <c r="G71">
-        <v>0.03511247605527475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0144684439592704</v>
+      </c>
+      <c r="H71">
+        <v>0.03215370266370224</v>
+      </c>
+      <c r="I71">
+        <v>0.1248417471507551</v>
+      </c>
+      <c r="J71">
+        <v>-0.02148729979372059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.116482806774945</v>
+        <v>0.1219284245588472</v>
       </c>
       <c r="C72">
-        <v>-0.004471094376360858</v>
+        <v>-0.0295383926895089</v>
       </c>
       <c r="D72">
-        <v>0.0354682203826754</v>
+        <v>0.0008343880051350621</v>
       </c>
       <c r="E72">
-        <v>0.09818602226660475</v>
+        <v>-0.05803361035458204</v>
       </c>
       <c r="F72">
-        <v>-0.00931564712483743</v>
+        <v>-0.08300275382362329</v>
       </c>
       <c r="G72">
-        <v>-0.02366150992264078</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04773839014705874</v>
+      </c>
+      <c r="H72">
+        <v>0.0001532311113175481</v>
+      </c>
+      <c r="I72">
+        <v>-0.05454944355319442</v>
+      </c>
+      <c r="J72">
+        <v>-0.08628435389298789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2871564206218173</v>
+        <v>0.2705166620316294</v>
       </c>
       <c r="C73">
-        <v>-0.1640568625908653</v>
+        <v>0.04858430542369001</v>
       </c>
       <c r="D73">
-        <v>-0.04588174137421406</v>
+        <v>-0.1195739059702761</v>
       </c>
       <c r="E73">
-        <v>0.3407402616918939</v>
+        <v>0.02728954404260926</v>
       </c>
       <c r="F73">
-        <v>0.06058864578108582</v>
+        <v>-0.3115645759177889</v>
       </c>
       <c r="G73">
-        <v>0.001074889348224766</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2036896685943473</v>
+      </c>
+      <c r="H73">
+        <v>0.4562648679531309</v>
+      </c>
+      <c r="I73">
+        <v>-0.3016570265244405</v>
+      </c>
+      <c r="J73">
+        <v>0.02706876080424169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.160909049124878</v>
+        <v>0.1525914046991931</v>
       </c>
       <c r="C74">
-        <v>-0.002686234118951413</v>
+        <v>-0.0277502924487832</v>
       </c>
       <c r="D74">
-        <v>0.04116012499819467</v>
+        <v>-0.0071154832975163</v>
       </c>
       <c r="E74">
-        <v>-0.01890110358027494</v>
+        <v>-0.0454288632212397</v>
       </c>
       <c r="F74">
-        <v>-0.06024419298378732</v>
+        <v>0.05490947520785576</v>
       </c>
       <c r="G74">
-        <v>0.053022603446411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01869407860132742</v>
+      </c>
+      <c r="H74">
+        <v>0.02903273988188986</v>
+      </c>
+      <c r="I74">
+        <v>0.01045602328429668</v>
+      </c>
+      <c r="J74">
+        <v>0.08502978244808926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2332356244015807</v>
+        <v>0.243214366042001</v>
       </c>
       <c r="C75">
-        <v>-0.01201241901623061</v>
+        <v>-0.02693446194810657</v>
       </c>
       <c r="D75">
-        <v>0.0674237526504243</v>
+        <v>-0.02232897061308543</v>
       </c>
       <c r="E75">
-        <v>-0.1274533940780891</v>
+        <v>-0.1031733066206073</v>
       </c>
       <c r="F75">
-        <v>-0.04644493401091515</v>
+        <v>0.1494534277818949</v>
       </c>
       <c r="G75">
-        <v>0.04353240202706998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005492626274079878</v>
+      </c>
+      <c r="H75">
+        <v>0.02156608218207293</v>
+      </c>
+      <c r="I75">
+        <v>0.09036945809791586</v>
+      </c>
+      <c r="J75">
+        <v>0.02572050718668436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2447007357246784</v>
+        <v>0.2672128788093709</v>
       </c>
       <c r="C76">
-        <v>-0.01299944522298606</v>
+        <v>-0.01401062193428009</v>
       </c>
       <c r="D76">
-        <v>0.1037572692383801</v>
+        <v>0.01271544969291541</v>
       </c>
       <c r="E76">
-        <v>-0.1238686872713926</v>
+        <v>-0.1276263089879495</v>
       </c>
       <c r="F76">
-        <v>-0.0775746133736665</v>
+        <v>0.1808018686864266</v>
       </c>
       <c r="G76">
-        <v>0.03919210498837006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05040907031636841</v>
+      </c>
+      <c r="H76">
+        <v>0.04441376169639409</v>
+      </c>
+      <c r="I76">
+        <v>0.02382137738369068</v>
+      </c>
+      <c r="J76">
+        <v>0.06589530944073914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1347555711615042</v>
+        <v>0.1306775454721254</v>
       </c>
       <c r="C77">
-        <v>0.02784754796966761</v>
+        <v>-0.06608681769083033</v>
       </c>
       <c r="D77">
-        <v>-0.04634321892764601</v>
+        <v>0.01172570233682374</v>
       </c>
       <c r="E77">
-        <v>0.1507803914143992</v>
+        <v>0.04173985890284882</v>
       </c>
       <c r="F77">
-        <v>0.005048889411073715</v>
+        <v>-0.1595687104224794</v>
       </c>
       <c r="G77">
-        <v>-0.06068370522803634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01336134507306104</v>
+      </c>
+      <c r="H77">
+        <v>-0.2028312839842563</v>
+      </c>
+      <c r="I77">
+        <v>0.1852188929591786</v>
+      </c>
+      <c r="J77">
+        <v>0.1020463672861981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08759995381606694</v>
+        <v>0.08194199978817869</v>
       </c>
       <c r="C78">
-        <v>0.04263666073856962</v>
+        <v>-0.07117712995693859</v>
       </c>
       <c r="D78">
-        <v>-0.01963206143214649</v>
+        <v>0.02917151585407852</v>
       </c>
       <c r="E78">
-        <v>0.04789217321523684</v>
+        <v>-0.00329183025442947</v>
       </c>
       <c r="F78">
-        <v>0.009584877534597643</v>
+        <v>-0.07240335746089864</v>
       </c>
       <c r="G78">
-        <v>0.01557315828464323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0116948830874963</v>
+      </c>
+      <c r="H78">
+        <v>-0.02874219800634152</v>
+      </c>
+      <c r="I78">
+        <v>0.02566741036524669</v>
+      </c>
+      <c r="J78">
+        <v>0.04702343940202201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06611012429782673</v>
+        <v>0.1515455370578747</v>
       </c>
       <c r="C80">
-        <v>0.02131219837782005</v>
+        <v>0.3679014088582462</v>
       </c>
       <c r="D80">
-        <v>-0.02131865718718627</v>
+        <v>0.9001789707660058</v>
       </c>
       <c r="E80">
-        <v>-0.02165346500026871</v>
+        <v>0.06265526107250884</v>
       </c>
       <c r="F80">
-        <v>-0.1355818775069303</v>
+        <v>-0.04849058334775785</v>
       </c>
       <c r="G80">
-        <v>-0.936404664848726</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04030252655293377</v>
+      </c>
+      <c r="H80">
+        <v>0.05691044714306871</v>
+      </c>
+      <c r="I80">
+        <v>-0.02815870304542185</v>
+      </c>
+      <c r="J80">
+        <v>-0.1007621163740902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.162801727371526</v>
+        <v>0.1793650746360417</v>
       </c>
       <c r="C81">
-        <v>-0.01193479812863613</v>
+        <v>-0.007018785831585572</v>
       </c>
       <c r="D81">
-        <v>0.06117436557604904</v>
+        <v>-0.005826940172086053</v>
       </c>
       <c r="E81">
-        <v>-0.1592787098905499</v>
+        <v>-0.08415960814501916</v>
       </c>
       <c r="F81">
-        <v>-0.1100941907008582</v>
+        <v>0.1644959650011734</v>
       </c>
       <c r="G81">
-        <v>0.0338127782416307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02890577568079762</v>
+      </c>
+      <c r="H81">
+        <v>0.009835315791823403</v>
+      </c>
+      <c r="I81">
+        <v>0.05498329719861794</v>
+      </c>
+      <c r="J81">
+        <v>0.008139113390810207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09459224915990704</v>
+        <v>0.06999229518968018</v>
       </c>
       <c r="C83">
-        <v>0.04699588991587777</v>
+        <v>-0.05073864585232454</v>
       </c>
       <c r="D83">
-        <v>-0.07937097345471031</v>
+        <v>0.0014079344589141</v>
       </c>
       <c r="E83">
-        <v>0.004827096290299905</v>
+        <v>0.0402043397888112</v>
       </c>
       <c r="F83">
-        <v>0.05723083743966596</v>
+        <v>-0.04372103069800271</v>
       </c>
       <c r="G83">
-        <v>0.0138123739364489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06124493584754692</v>
+      </c>
+      <c r="H83">
+        <v>-0.01868889048277448</v>
+      </c>
+      <c r="I83">
+        <v>0.0205874173207918</v>
+      </c>
+      <c r="J83">
+        <v>0.07813904815284947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2319835785111254</v>
+        <v>0.250885202190396</v>
       </c>
       <c r="C85">
-        <v>0.04768389820166422</v>
+        <v>-0.05097404593916824</v>
       </c>
       <c r="D85">
-        <v>0.06296516570589453</v>
+        <v>0.009761796723127627</v>
       </c>
       <c r="E85">
-        <v>-0.1568251472711881</v>
+        <v>-0.08686409161611439</v>
       </c>
       <c r="F85">
-        <v>-0.07221389911315584</v>
+        <v>0.1860070977907095</v>
       </c>
       <c r="G85">
-        <v>0.01716572996752928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008568295273604337</v>
+      </c>
+      <c r="H85">
+        <v>-0.01840012683111426</v>
+      </c>
+      <c r="I85">
+        <v>0.05686091155796392</v>
+      </c>
+      <c r="J85">
+        <v>0.07824452909468259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04516972041049208</v>
+        <v>0.02682808812115359</v>
       </c>
       <c r="C86">
-        <v>0.04973208202200761</v>
+        <v>-0.06266849277618344</v>
       </c>
       <c r="D86">
-        <v>0.01232908919069678</v>
+        <v>0.02321159600174705</v>
       </c>
       <c r="E86">
-        <v>0.05947285290528116</v>
+        <v>-0.009164873363287324</v>
       </c>
       <c r="F86">
-        <v>-0.002170811533819832</v>
+        <v>-0.067180240980438</v>
       </c>
       <c r="G86">
-        <v>0.02864893518544966</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007616687453156161</v>
+      </c>
+      <c r="H86">
+        <v>-0.06637422861094952</v>
+      </c>
+      <c r="I86">
+        <v>0.02871363330090685</v>
+      </c>
+      <c r="J86">
+        <v>0.04270025076047468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02448736110436994</v>
+        <v>0.03534227808773049</v>
       </c>
       <c r="C87">
-        <v>-0.05057637244352747</v>
+        <v>0.01011905974015614</v>
       </c>
       <c r="D87">
-        <v>0.006719334376450331</v>
+        <v>-0.008430986476460742</v>
       </c>
       <c r="E87">
-        <v>0.09308968821900378</v>
+        <v>-0.004500188204785718</v>
       </c>
       <c r="F87">
-        <v>-0.01879943951160951</v>
+        <v>-0.1021975231703739</v>
       </c>
       <c r="G87">
-        <v>0.03199585487948023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02146477082644968</v>
+      </c>
+      <c r="H87">
+        <v>-0.02050022007879606</v>
+      </c>
+      <c r="I87">
+        <v>-0.01884939866127715</v>
+      </c>
+      <c r="J87">
+        <v>0.01550652801327102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04065072724904365</v>
+        <v>0.0287638563087333</v>
       </c>
       <c r="C88">
-        <v>0.03271462425595261</v>
+        <v>-0.01632112540139814</v>
       </c>
       <c r="D88">
-        <v>0.009106178352984167</v>
+        <v>0.01827870441667327</v>
       </c>
       <c r="E88">
-        <v>-0.0135031467393118</v>
+        <v>-0.0156445726016143</v>
       </c>
       <c r="F88">
-        <v>-0.01321768332489355</v>
+        <v>0.0130292086274276</v>
       </c>
       <c r="G88">
-        <v>0.007460455109147245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03811308978732456</v>
+      </c>
+      <c r="H88">
+        <v>-0.03543555639499403</v>
+      </c>
+      <c r="I88">
+        <v>-0.02669730866825634</v>
+      </c>
+      <c r="J88">
+        <v>0.03018199124931344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.003658153993419996</v>
+        <v>0.0662486149366423</v>
       </c>
       <c r="C89">
-        <v>-0.4185077713012378</v>
+        <v>0.3556267923605168</v>
       </c>
       <c r="D89">
-        <v>-0.08950174488388515</v>
+        <v>-0.1721888946756482</v>
       </c>
       <c r="E89">
-        <v>-0.00630007369396099</v>
+        <v>0.04249905041330846</v>
       </c>
       <c r="F89">
-        <v>0.008320883926543414</v>
+        <v>-0.04177287518468819</v>
       </c>
       <c r="G89">
-        <v>0.02912697232033803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04874918296233303</v>
+      </c>
+      <c r="H89">
+        <v>-0.03951167784156604</v>
+      </c>
+      <c r="I89">
+        <v>0.2649709699107765</v>
+      </c>
+      <c r="J89">
+        <v>-0.0623064642615588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.0002350233755488908</v>
+        <v>0.04665129302204724</v>
       </c>
       <c r="C90">
-        <v>-0.3094807744777194</v>
+        <v>0.3101223841457261</v>
       </c>
       <c r="D90">
-        <v>-0.02447876262817051</v>
+        <v>-0.1319408947406907</v>
       </c>
       <c r="E90">
-        <v>0.04650439474513824</v>
+        <v>0.02973398772883967</v>
       </c>
       <c r="F90">
-        <v>0.01611052025839278</v>
+        <v>-0.03909872716509573</v>
       </c>
       <c r="G90">
-        <v>0.04182425174307784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02709520471918017</v>
+      </c>
+      <c r="H90">
+        <v>-0.003010264716896568</v>
+      </c>
+      <c r="I90">
+        <v>0.2266627113917062</v>
+      </c>
+      <c r="J90">
+        <v>-0.02842500174083075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2802709027552677</v>
+        <v>0.2974991720380014</v>
       </c>
       <c r="C91">
-        <v>0.02070217310437434</v>
+        <v>-0.03872013703289109</v>
       </c>
       <c r="D91">
-        <v>0.06900664846573434</v>
+        <v>-0.006781576921315336</v>
       </c>
       <c r="E91">
-        <v>-0.2843912942521906</v>
+        <v>-0.08562664646459903</v>
       </c>
       <c r="F91">
-        <v>-0.1251502314321248</v>
+        <v>0.2920189518967724</v>
       </c>
       <c r="G91">
-        <v>-0.03097467949413798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0304828883780695</v>
+      </c>
+      <c r="H91">
+        <v>0.009912374609580842</v>
+      </c>
+      <c r="I91">
+        <v>0.1197183325934006</v>
+      </c>
+      <c r="J91">
+        <v>0.06556726729012852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.008374204688400786</v>
+        <v>0.1030736946857831</v>
       </c>
       <c r="C92">
-        <v>-0.4286999652468053</v>
+        <v>0.4159706109563804</v>
       </c>
       <c r="D92">
-        <v>-0.1876161286692984</v>
+        <v>-0.1522792116385073</v>
       </c>
       <c r="E92">
-        <v>-0.1228651305415917</v>
+        <v>0.06437578069792596</v>
       </c>
       <c r="F92">
-        <v>-0.06770570907605673</v>
+        <v>0.1140940339596924</v>
       </c>
       <c r="G92">
-        <v>-0.1498544789662943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1044702865269865</v>
+      </c>
+      <c r="H92">
+        <v>-0.4426617393512612</v>
+      </c>
+      <c r="I92">
+        <v>-0.6845594904396276</v>
+      </c>
+      <c r="J92">
+        <v>0.2655561253497127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.0111771035453119</v>
+        <v>0.0517657666675025</v>
       </c>
       <c r="C93">
-        <v>-0.3757978116222401</v>
+        <v>0.3712665587064684</v>
       </c>
       <c r="D93">
-        <v>-0.06471592083408739</v>
+        <v>-0.1728495890306276</v>
       </c>
       <c r="E93">
-        <v>-0.02621633914587527</v>
+        <v>0.05869673110217685</v>
       </c>
       <c r="F93">
-        <v>-0.01070503724356426</v>
+        <v>-0.009403348415657455</v>
       </c>
       <c r="G93">
-        <v>-0.03866121547600859</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03573041050542342</v>
+      </c>
+      <c r="H93">
+        <v>0.0282109091586235</v>
+      </c>
+      <c r="I93">
+        <v>0.172323531618024</v>
+      </c>
+      <c r="J93">
+        <v>-0.05741995388790638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.274020802032009</v>
+        <v>0.3030477338292621</v>
       </c>
       <c r="C94">
-        <v>-0.07378572510205252</v>
+        <v>0.003937953958946853</v>
       </c>
       <c r="D94">
-        <v>0.03241790758734239</v>
+        <v>-0.04823989761445343</v>
       </c>
       <c r="E94">
-        <v>-0.3460212989308277</v>
+        <v>-0.1300087072456064</v>
       </c>
       <c r="F94">
-        <v>-0.4137925361015656</v>
+        <v>0.3441405313481775</v>
       </c>
       <c r="G94">
-        <v>0.1340532225898358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1975084900569578</v>
+      </c>
+      <c r="H94">
+        <v>-0.1483200946465843</v>
+      </c>
+      <c r="I94">
+        <v>0.02495254241136189</v>
+      </c>
+      <c r="J94">
+        <v>-0.1690675833044148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2006603049655886</v>
+        <v>0.1311378800609735</v>
       </c>
       <c r="C95">
-        <v>-0.03166792438866491</v>
+        <v>-0.07653641298028922</v>
       </c>
       <c r="D95">
-        <v>0.004010763921369715</v>
+        <v>-0.07523812428146848</v>
       </c>
       <c r="E95">
-        <v>-0.410770570240448</v>
+        <v>-0.03110186131919323</v>
       </c>
       <c r="F95">
-        <v>0.8276696730283644</v>
+        <v>0.07379596681900592</v>
       </c>
       <c r="G95">
-        <v>-0.09373149486928366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8843987134479834</v>
+      </c>
+      <c r="H95">
+        <v>0.2149324730113459</v>
+      </c>
+      <c r="I95">
+        <v>-0.1050756665887493</v>
+      </c>
+      <c r="J95">
+        <v>-0.2658521333045664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2225985620930384</v>
+        <v>0.2110626405437502</v>
       </c>
       <c r="C98">
-        <v>-0.1175610178339807</v>
+        <v>0.03533179184962887</v>
       </c>
       <c r="D98">
-        <v>-0.05090985876765136</v>
+        <v>-0.08468786571751581</v>
       </c>
       <c r="E98">
-        <v>0.09447497651149728</v>
+        <v>0.02554137700293291</v>
       </c>
       <c r="F98">
-        <v>0.05926142475361548</v>
+        <v>-0.161520061938052</v>
       </c>
       <c r="G98">
-        <v>0.05579333887602932</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.09933967205815494</v>
+      </c>
+      <c r="H98">
+        <v>0.3212856956045385</v>
+      </c>
+      <c r="I98">
+        <v>-0.1659361412297218</v>
+      </c>
+      <c r="J98">
+        <v>-0.04074212913890404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02418924614918948</v>
+        <v>0.01615651107998696</v>
       </c>
       <c r="C101">
-        <v>0.0182298543548961</v>
+        <v>-0.02917673061288711</v>
       </c>
       <c r="D101">
-        <v>0.02808706923985443</v>
+        <v>0.01644827558495084</v>
       </c>
       <c r="E101">
-        <v>0.02297822439212393</v>
+        <v>-0.03247821947259462</v>
       </c>
       <c r="F101">
-        <v>0.01374079051192509</v>
+        <v>-0.06547276598427595</v>
       </c>
       <c r="G101">
-        <v>0.01909339667715362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02427535518970755</v>
+      </c>
+      <c r="H101">
+        <v>-0.109979194822012</v>
+      </c>
+      <c r="I101">
+        <v>-0.04572142547804766</v>
+      </c>
+      <c r="J101">
+        <v>-0.1105666400017722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1184861360906818</v>
+        <v>0.1200801005656595</v>
       </c>
       <c r="C102">
-        <v>0.01328178932207201</v>
+        <v>-0.02219089087960183</v>
       </c>
       <c r="D102">
-        <v>0.04057310413726734</v>
+        <v>0.00931865652635709</v>
       </c>
       <c r="E102">
-        <v>-0.08662140485785789</v>
+        <v>-0.05158387391429631</v>
       </c>
       <c r="F102">
-        <v>-0.006598326316418307</v>
+        <v>0.09775563433337806</v>
       </c>
       <c r="G102">
-        <v>-0.007824481624281921</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01931721450856371</v>
+      </c>
+      <c r="H102">
+        <v>0.02219703413251431</v>
+      </c>
+      <c r="I102">
+        <v>0.04687837932350481</v>
+      </c>
+      <c r="J102">
+        <v>0.03745731234175161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.02013953222419833</v>
+        <v>0.03275261426410087</v>
       </c>
       <c r="C103">
-        <v>0.00139525139047393</v>
+        <v>-0.004880893636086587</v>
       </c>
       <c r="D103">
-        <v>0.0136670979550001</v>
+        <v>0.0101703927161237</v>
       </c>
       <c r="E103">
-        <v>-0.03147464950003302</v>
+        <v>-0.0211467198652967</v>
       </c>
       <c r="F103">
-        <v>-0.01698604067473326</v>
+        <v>0.02943460846333237</v>
       </c>
       <c r="G103">
-        <v>0.0149377845819788</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.013838590493631</v>
+      </c>
+      <c r="H103">
+        <v>-0.01433198873685261</v>
+      </c>
+      <c r="I103">
+        <v>0.03164343045064238</v>
+      </c>
+      <c r="J103">
+        <v>0.009629445310590049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
